--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H2">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J2">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.84962808521901</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N2">
-        <v>4.84962808521901</v>
+        <v>17.167995</v>
       </c>
       <c r="O2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P2">
-        <v>0.07967818296981505</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q2">
-        <v>139.6260505680413</v>
+        <v>217.727703929515</v>
       </c>
       <c r="R2">
-        <v>139.6260505680413</v>
+        <v>1959.549335365635</v>
       </c>
       <c r="S2">
-        <v>0.06618048384282663</v>
+        <v>0.07298753968747979</v>
       </c>
       <c r="T2">
-        <v>0.06618048384282663</v>
+        <v>0.07298753968747977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H3">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J3">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.2857627525154</v>
+        <v>41.286995</v>
       </c>
       <c r="N3">
-        <v>41.2857627525154</v>
+        <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P3">
-        <v>0.678314811123241</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q3">
-        <v>1188.661871905698</v>
+        <v>1570.828036150878</v>
       </c>
       <c r="R3">
-        <v>1188.661871905698</v>
+        <v>14137.4523253579</v>
       </c>
       <c r="S3">
-        <v>0.5634064523647337</v>
+        <v>0.5265791700439008</v>
       </c>
       <c r="T3">
-        <v>0.5634064523647337</v>
+        <v>0.5265791700439009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.7910842057357</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H4">
-        <v>28.7910842057357</v>
+        <v>114.139673</v>
       </c>
       <c r="I4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J4">
-        <v>0.8305973024999599</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.7298034282571</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N4">
-        <v>14.7298034282571</v>
+        <v>0.186374</v>
       </c>
       <c r="O4">
-        <v>0.242007005906944</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P4">
-        <v>0.242007005906944</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q4">
-        <v>424.0870108368845</v>
+        <v>2.363629712855778</v>
       </c>
       <c r="R4">
-        <v>424.0870108368845</v>
+        <v>21.272667415702</v>
       </c>
       <c r="S4">
-        <v>0.2010103662923995</v>
+        <v>0.0007923452751305182</v>
       </c>
       <c r="T4">
-        <v>0.2010103662923995</v>
+        <v>0.000792345275130518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58828915408773</v>
+        <v>38.04655766666666</v>
       </c>
       <c r="H5">
-        <v>1.58828915408773</v>
+        <v>114.139673</v>
       </c>
       <c r="I5">
-        <v>0.04582073664014354</v>
+        <v>0.8090698722086991</v>
       </c>
       <c r="J5">
-        <v>0.04582073664014354</v>
+        <v>0.8090698722086992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.84962808521901</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N5">
-        <v>4.84962808521901</v>
+        <v>49.092575</v>
       </c>
       <c r="O5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P5">
-        <v>0.07967818296981505</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q5">
-        <v>7.702611689112598</v>
+        <v>622.6011619142195</v>
       </c>
       <c r="R5">
-        <v>7.702611689112598</v>
+        <v>5603.410457227976</v>
       </c>
       <c r="S5">
-        <v>0.003650913037825065</v>
+        <v>0.208710817202188</v>
       </c>
       <c r="T5">
-        <v>0.003650913037825065</v>
+        <v>0.2087108172021881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J6">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.2857627525154</v>
+        <v>5.722664999999999</v>
       </c>
       <c r="N6">
-        <v>41.2857627525154</v>
+        <v>17.167995</v>
       </c>
       <c r="O6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595352</v>
       </c>
       <c r="P6">
-        <v>0.678314811123241</v>
+        <v>0.09021166427595351</v>
       </c>
       <c r="Q6">
-        <v>65.5737291980594</v>
+        <v>9.254953265480001</v>
       </c>
       <c r="R6">
-        <v>65.5737291980594</v>
+        <v>83.29457938932001</v>
       </c>
       <c r="S6">
-        <v>0.03108088431958673</v>
+        <v>0.00310248193766224</v>
       </c>
       <c r="T6">
-        <v>0.03108088431958673</v>
+        <v>0.00310248193766224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.58828915408773</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>1.58828915408773</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J7">
-        <v>0.04582073664014354</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7298034282571</v>
+        <v>41.286995</v>
       </c>
       <c r="N7">
-        <v>14.7298034282571</v>
+        <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="P7">
-        <v>0.242007005906944</v>
+        <v>0.6508451100847196</v>
       </c>
       <c r="Q7">
-        <v>23.39518702694501</v>
+        <v>66.77119999110667</v>
       </c>
       <c r="R7">
-        <v>23.39518702694501</v>
+        <v>600.9407999199601</v>
       </c>
       <c r="S7">
-        <v>0.01108893928273174</v>
+        <v>0.02238330502446871</v>
       </c>
       <c r="T7">
-        <v>0.01108893928273174</v>
+        <v>0.02238330502446871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.28373488659071</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>4.28373488659071</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.1235819608598966</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J8">
-        <v>0.1235819608598966</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.84962808521901</v>
+        <v>0.06212466666666667</v>
       </c>
       <c r="N8">
-        <v>4.84962808521901</v>
+        <v>0.186374</v>
       </c>
       <c r="O8">
-        <v>0.07967818296981505</v>
+        <v>0.0009793286122093212</v>
       </c>
       <c r="P8">
-        <v>0.07967818296981505</v>
+        <v>0.000979328612209321</v>
       </c>
       <c r="Q8">
-        <v>20.77452101564278</v>
+        <v>0.1004708272515556</v>
       </c>
       <c r="R8">
-        <v>20.77452101564278</v>
+        <v>0.9042374452640002</v>
       </c>
       <c r="S8">
-        <v>0.00984678608916336</v>
+        <v>3.368022699504878E-05</v>
       </c>
       <c r="T8">
-        <v>0.00984678608916336</v>
+        <v>3.368022699504878E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.28373488659071</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>4.28373488659071</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.1235819608598966</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="J9">
-        <v>0.1235819608598966</v>
+        <v>0.03439113957782537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.2857627525154</v>
+        <v>16.36419166666667</v>
       </c>
       <c r="N9">
-        <v>41.2857627525154</v>
+        <v>49.092575</v>
       </c>
       <c r="O9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="P9">
-        <v>0.678314811123241</v>
+        <v>0.2579638970271176</v>
       </c>
       <c r="Q9">
-        <v>176.8572622224575</v>
+        <v>26.46491260668889</v>
       </c>
       <c r="R9">
-        <v>176.8572622224575</v>
+        <v>238.1842134602001</v>
       </c>
       <c r="S9">
-        <v>0.0838274744389205</v>
+        <v>0.008871672388699372</v>
       </c>
       <c r="T9">
-        <v>0.0838274744389205</v>
+        <v>0.008871672388699372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.361255</v>
+      </c>
+      <c r="H10">
+        <v>22.083765</v>
+      </c>
+      <c r="I10">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="J10">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.722664999999999</v>
+      </c>
+      <c r="N10">
+        <v>17.167995</v>
+      </c>
+      <c r="O10">
+        <v>0.09021166427595352</v>
+      </c>
+      <c r="P10">
+        <v>0.09021166427595351</v>
+      </c>
+      <c r="Q10">
+        <v>42.12599634457499</v>
+      </c>
+      <c r="R10">
+        <v>379.133967101175</v>
+      </c>
+      <c r="S10">
+        <v>0.01412164265081149</v>
+      </c>
+      <c r="T10">
+        <v>0.01412164265081149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.28373488659071</v>
-      </c>
-      <c r="H10">
-        <v>4.28373488659071</v>
-      </c>
-      <c r="I10">
-        <v>0.1235819608598966</v>
-      </c>
-      <c r="J10">
-        <v>0.1235819608598966</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.7298034282571</v>
-      </c>
-      <c r="N10">
-        <v>14.7298034282571</v>
-      </c>
-      <c r="O10">
-        <v>0.242007005906944</v>
-      </c>
-      <c r="P10">
-        <v>0.242007005906944</v>
-      </c>
-      <c r="Q10">
-        <v>63.09857281824838</v>
-      </c>
-      <c r="R10">
-        <v>63.09857281824838</v>
-      </c>
-      <c r="S10">
-        <v>0.0299077003318127</v>
-      </c>
-      <c r="T10">
-        <v>0.0299077003318127</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.361255</v>
+      </c>
+      <c r="H11">
+        <v>22.083765</v>
+      </c>
+      <c r="I11">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="J11">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.286995</v>
+      </c>
+      <c r="N11">
+        <v>123.860985</v>
+      </c>
+      <c r="O11">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="P11">
+        <v>0.6508451100847196</v>
+      </c>
+      <c r="Q11">
+        <v>303.924098378725</v>
+      </c>
+      <c r="R11">
+        <v>2735.316885408525</v>
+      </c>
+      <c r="S11">
+        <v>0.10188263501635</v>
+      </c>
+      <c r="T11">
+        <v>0.10188263501635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.361255</v>
+      </c>
+      <c r="H12">
+        <v>22.083765</v>
+      </c>
+      <c r="I12">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="J12">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06212466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.186374</v>
+      </c>
+      <c r="O12">
+        <v>0.0009793286122093212</v>
+      </c>
+      <c r="P12">
+        <v>0.000979328612209321</v>
+      </c>
+      <c r="Q12">
+        <v>0.4573155131233334</v>
+      </c>
+      <c r="R12">
+        <v>4.11583961811</v>
+      </c>
+      <c r="S12">
+        <v>0.0001533031100837542</v>
+      </c>
+      <c r="T12">
+        <v>0.0001533031100837542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.361255</v>
+      </c>
+      <c r="H13">
+        <v>22.083765</v>
+      </c>
+      <c r="I13">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="J13">
+        <v>0.1565389882134754</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.36419166666667</v>
+      </c>
+      <c r="N13">
+        <v>49.092575</v>
+      </c>
+      <c r="O13">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="P13">
+        <v>0.2579638970271176</v>
+      </c>
+      <c r="Q13">
+        <v>120.4609877272083</v>
+      </c>
+      <c r="R13">
+        <v>1084.148889544875</v>
+      </c>
+      <c r="S13">
+        <v>0.04038140743623016</v>
+      </c>
+      <c r="T13">
+        <v>0.04038140743623016</v>
       </c>
     </row>
   </sheetData>
